--- a/Controls/CNC_electrical.xlsx
+++ b/Controls/CNC_electrical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57f6038beb1cecb6/Documents/Projects/CNC Router/Controls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{FB1DF5D6-024D-43B6-906B-3CA3736E7608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4994D66C-9897-44E0-B7E9-DB0E31330972}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{FB1DF5D6-024D-43B6-906B-3CA3736E7608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B558729A-94E3-4DBB-9EFC-EA5F2261A0C0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{565FB7A5-41BD-4708-92E5-1C17E0B3D2DE}"/>
+    <workbookView xWindow="29760" yWindow="2625" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{565FB7A5-41BD-4708-92E5-1C17E0B3D2DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="POs" sheetId="6" r:id="rId3"/>
     <sheet name="IO" sheetId="3" r:id="rId4"/>
     <sheet name="PXC" sheetId="4" r:id="rId5"/>
-    <sheet name="CableWire" sheetId="5" r:id="rId6"/>
+    <sheet name="Wire" sheetId="5" r:id="rId6"/>
+    <sheet name="Cable" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="241">
   <si>
     <t>Heat</t>
   </si>
@@ -280,9 +281,6 @@
     <t>Spindle reverse rotation control signal</t>
   </si>
   <si>
-    <t>&gt;10/M11</t>
-  </si>
-  <si>
     <t>Z-axis servo alarm signal</t>
   </si>
   <si>
@@ -718,19 +716,55 @@
     <t>relay stuff</t>
   </si>
   <si>
-    <t>0.2mm</t>
-  </si>
-  <si>
-    <t>24AWG</t>
-  </si>
-  <si>
-    <t>4mm cable</t>
-  </si>
-  <si>
-    <t>chainflex® control cable CF880 (igus.com)</t>
-  </si>
-  <si>
-    <t>25x20AWG</t>
+    <t>M10/M11</t>
+  </si>
+  <si>
+    <t>VFD</t>
+  </si>
+  <si>
+    <t>Cables HMI to Cabinet</t>
+  </si>
+  <si>
+    <t>Power and Ground</t>
+  </si>
+  <si>
+    <t>Num Conductors</t>
+  </si>
+  <si>
+    <t>OD (in)</t>
+  </si>
+  <si>
+    <t>OD (mm)</t>
+  </si>
+  <si>
+    <t>CF880-05-12</t>
+  </si>
+  <si>
+    <t>CF880-05-05</t>
+  </si>
+  <si>
+    <t>Drives (5)</t>
+  </si>
+  <si>
+    <t>CC600-20-25U-1</t>
+  </si>
+  <si>
+    <t>Q8504-1</t>
+  </si>
+  <si>
+    <t>CC600-18-7S-1</t>
+  </si>
+  <si>
+    <t>VFD to Spindle</t>
+  </si>
+  <si>
+    <t>CF270-UL-D</t>
+  </si>
+  <si>
+    <t>Qty Cables</t>
+  </si>
+  <si>
+    <t>Cables from Machine</t>
   </si>
 </sst>
 </file>
@@ -869,23 +903,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>600328</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104953</xdr:rowOff>
+      <xdr:colOff>362203</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28753</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE9AA009-C6F8-42A5-823C-45BF6A738F04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5828D2-2E96-49EF-8F41-E98645AEAF25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -901,7 +935,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4943475" y="5305425"/>
+          <a:off x="5029200" y="3895725"/>
           <a:ext cx="1810003" cy="1276528"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1211,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4157201-0D21-461D-9F88-5C899AD70234}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,10 +1314,6 @@
         <f>H2*E2</f>
         <v>40.56</v>
       </c>
-      <c r="J2">
-        <f>F2*H2</f>
-        <v>20</v>
-      </c>
       <c r="M2" t="s">
         <v>8</v>
       </c>
@@ -1330,10 +1360,6 @@
         <f>H3*E3</f>
         <v>252.00000000000006</v>
       </c>
-      <c r="J3">
-        <f>F3*H3</f>
-        <v>84</v>
-      </c>
       <c r="M3" t="s">
         <v>13</v>
       </c>
@@ -1368,97 +1394,111 @@
         <f>H4*E4</f>
         <v>64.8</v>
       </c>
-      <c r="J4">
-        <f>E4*H4</f>
-        <v>64.8</v>
-      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5">
+        <f>0.07*5*745.7</f>
+        <v>260.99500000000006</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
       <c r="I5">
-        <f>SUM(I2:I4)</f>
-        <v>357.36000000000007</v>
-      </c>
-      <c r="J5">
-        <f>SUM(J2:J4)</f>
-        <v>168.8</v>
+        <f>H5*E5</f>
+        <v>260.99500000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I7" s="3">
+        <f>SUM(I2:I5)</f>
+        <v>618.35500000000013</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S10" t="s">
+      <c r="F10">
+        <f>44+240+300+95</f>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S12" t="s">
         <v>16</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S11">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S13">
         <v>20</v>
       </c>
-      <c r="T11">
+      <c r="T13">
         <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S12">
-        <v>18</v>
-      </c>
-      <c r="T12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S13">
-        <v>16</v>
-      </c>
-      <c r="T13">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="T14">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="S15">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T15">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S16">
+        <v>14</v>
+      </c>
+      <c r="T16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>12</v>
+      </c>
+      <c r="T17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S18">
         <v>10</v>
       </c>
-      <c r="T16">
+      <c r="T18">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" display="https://www.alliedelec.com/product/rs-pro-by-allied/466150/70822676/" xr:uid="{2A076962-024C-44C2-98BE-CF70B7697F0E}"/>
+    <hyperlink ref="C15" r:id="rId1" display="https://www.alliedelec.com/product/rs-pro-by-allied/466150/70822676/" xr:uid="{2A076962-024C-44C2-98BE-CF70B7697F0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1470,7 +1510,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6216F19F-0EBF-432E-98ED-269525B5EECC}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,12 +2070,12 @@
         <v>78</v>
       </c>
       <c r="N3" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2044,21 +2084,21 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>81</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>82</v>
-      </c>
-      <c r="N4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2067,35 +2107,35 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>85</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>86</v>
-      </c>
-      <c r="N5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
         <v>88</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>89</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2104,18 +2144,18 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2124,18 +2164,18 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>95</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2144,32 +2184,32 @@
         <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
         <v>99</v>
-      </c>
-      <c r="J10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G11">
         <f>SUM(G2:G8)</f>
         <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2178,7 +2218,7 @@
         <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -2186,7 +2226,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2195,7 +2235,7 @@
         <v>9</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2203,7 +2243,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2212,7 +2252,7 @@
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2220,63 +2260,60 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" t="s">
         <v>109</v>
-      </c>
-      <c r="J15" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" t="s">
         <v>111</v>
-      </c>
-      <c r="J16" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="J17" t="s">
         <v>113</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="J17" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
         <v>115</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>116</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
         <v>117</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="J19" t="s">
-        <v>118</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2284,7 +2321,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2293,29 +2330,29 @@
         <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" t="s">
         <v>121</v>
-      </c>
-      <c r="J21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
         <v>123</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>11</v>
-      </c>
-      <c r="J22" t="s">
-        <v>124</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2323,40 +2360,40 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
         <v>125</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>12</v>
-      </c>
-      <c r="J23" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" t="s">
         <v>127</v>
-      </c>
-      <c r="J24" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="J25" t="s">
         <v>129</v>
-      </c>
-      <c r="J25" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" t="s">
         <v>131</v>
-      </c>
-      <c r="J26" t="s">
-        <v>132</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2364,98 +2401,101 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" t="s">
         <v>133</v>
-      </c>
-      <c r="J27" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K30">
         <f>SUM(K2:K29)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="C33">
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2466,33 +2506,33 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2512,8 +2552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B308D1A7-4D94-499E-AC82-9272BC05FACC}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2526,18 +2566,18 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="8">
         <v>1207658</v>
@@ -2547,12 +2587,12 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="8">
         <v>1415240</v>
@@ -2562,12 +2602,12 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="8">
         <v>3240626</v>
@@ -2577,12 +2617,12 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="8">
         <v>3240627</v>
@@ -2597,7 +2637,7 @@
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="8">
         <v>3240647</v>
@@ -2607,12 +2647,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="8">
         <v>3240630</v>
@@ -2627,7 +2667,7 @@
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="8">
         <v>3240631</v>
@@ -2642,7 +2682,7 @@
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="8">
         <v>3240648</v>
@@ -2652,12 +2692,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="8">
         <v>3214657</v>
@@ -2669,12 +2709,12 @@
         <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="8">
         <v>3214699</v>
@@ -2686,12 +2726,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B12" s="8">
         <v>3213726</v>
@@ -2703,12 +2743,12 @@
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" s="8">
         <v>3113771</v>
@@ -2718,12 +2758,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" s="8">
         <v>3213056</v>
@@ -2733,12 +2773,12 @@
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" s="8">
         <v>3213069</v>
@@ -2748,12 +2788,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="8">
         <v>1044423</v>
@@ -2763,12 +2803,12 @@
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" s="8">
         <v>3001596</v>
@@ -2778,12 +2818,12 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="8">
         <v>3030349</v>
@@ -2793,12 +2833,12 @@
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" s="8">
         <v>2907594</v>
@@ -2808,12 +2848,12 @@
         <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="8">
         <v>2907591</v>
@@ -2823,12 +2863,12 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B21" s="8">
         <v>1019974</v>
@@ -2843,7 +2883,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" s="8">
         <v>3211809</v>
@@ -2853,12 +2893,12 @@
         <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" s="8">
         <v>3208979</v>
@@ -2868,12 +2908,12 @@
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" s="8">
         <v>1046949</v>
@@ -2883,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2924,10 +2964,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82AE0C3-D60B-40FA-B8B0-D967D7399B1E}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A29" sqref="A29:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2939,24 +2979,24 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" t="s">
         <v>195</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>196</v>
-      </c>
-      <c r="F1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -2972,24 +3012,24 @@
         <v>16</v>
       </c>
       <c r="O2" t="s">
+        <v>199</v>
+      </c>
+      <c r="P2" t="s">
         <v>200</v>
-      </c>
-      <c r="P2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -3005,7 +3045,7 @@
         <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P3">
         <v>6</v>
@@ -3017,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -3025,13 +3065,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -3044,7 +3084,7 @@
         <v>5.3000000000000007</v>
       </c>
       <c r="O5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P5">
         <v>3</v>
@@ -3055,7 +3095,7 @@
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -3068,7 +3108,7 @@
         <v>6.4</v>
       </c>
       <c r="O6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -3076,13 +3116,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" t="s">
         <v>210</v>
       </c>
-      <c r="B7" t="s">
-        <v>211</v>
-      </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -3099,7 +3139,7 @@
         <v>14</v>
       </c>
       <c r="O7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P7">
         <v>14</v>
@@ -3107,10 +3147,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8">
         <v>500</v>
@@ -3124,7 +3164,7 @@
         <v>200</v>
       </c>
       <c r="O8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P8">
         <v>10</v>
@@ -3135,7 +3175,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -3149,7 +3189,7 @@
         <v>249</v>
       </c>
       <c r="O9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P9">
         <v>10</v>
@@ -3157,10 +3197,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -3174,7 +3214,7 @@
         <v>139</v>
       </c>
       <c r="O10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P10">
         <v>10</v>
@@ -3193,13 +3233,13 @@
         <v>51.28</v>
       </c>
       <c r="H11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N11">
         <v>18</v>
       </c>
       <c r="O11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P11">
         <v>45</v>
@@ -3207,7 +3247,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P12">
         <v>45</v>
@@ -3215,21 +3255,21 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" t="s">
         <v>215</v>
-      </c>
-      <c r="B14" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s">
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E19">
         <v>25</v>
@@ -3244,10 +3284,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -3263,7 +3303,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -3282,7 +3322,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -3296,147 +3336,327 @@
         <v>0.36249999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>198</v>
-      </c>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="1"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270BA6EC-7C49-44B3-A634-EB928EE4289A}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>0.498</v>
+      </c>
+      <c r="E2">
+        <f>D2*25.4</f>
+        <v>12.649199999999999</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0.33</v>
+      </c>
+      <c r="E3">
+        <f>D3*25.4</f>
+        <v>8.3819999999999997</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>0.26</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E9" si="0">D4*25.4</f>
+        <v>6.6040000000000001</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5.9689999999999994</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8.1533999999999995</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>0.39</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>9.9060000000000006</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>14.477999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <f>E21/25.4</f>
+        <v>0.1456692913385827</v>
+      </c>
+      <c r="E21">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f>E22/25.4</f>
+        <v>0.1456692913385827</v>
+      </c>
+      <c r="E22">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E23">
+        <f>D23*25.4</f>
+        <v>6.9850000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>0.25</v>
+      </c>
+      <c r="E24">
+        <f>D24*25.4</f>
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <f>D29*25.4</f>
-        <v>14.477999999999998</v>
-      </c>
-      <c r="D29">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>3.7</v>
-      </c>
-      <c r="D30">
-        <f>C30/25.4</f>
-        <v>0.1456692913385827</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>220</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>3.7</v>
-      </c>
-      <c r="D31">
-        <f>C31/25.4</f>
-        <v>0.1456692913385827</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>221</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <f>D32*25.4</f>
-        <v>6.9850000000000003</v>
-      </c>
-      <c r="D32">
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>222</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <f>D33*25.4</f>
-        <v>6.35</v>
-      </c>
-      <c r="D33">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>223</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>224</v>
-      </c>
-      <c r="B35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <f>SUM(B30:B35)</f>
+        <f>SUM(B21:B26)</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>225</v>
-      </c>
-      <c r="C42" t="s">
-        <v>226</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>227</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A45" r:id="rId1" display="https://www.igus.com/product/380?artNr=CF880-05-25" xr:uid="{928DAB04-59D8-4693-A353-1CA88B147859}"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{033D2F14-DC9B-4AD9-9E84-684BAB1F1ECA}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{E8BA6556-9D2D-4E63-8872-7A966D4F2232}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{907803B4-836B-40F3-9565-C780B311662E}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{4610738B-0392-4FFB-9278-CE8F794FCE3E}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{07003FD2-184F-48B2-99E2-22A34C3D15B8}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{E216E101-9E2A-467E-AF58-AC5DE6620F8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>